--- a/planilha/Hospedagem.xlsx
+++ b/planilha/Hospedagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Felipe\Aulas\Senai\_Projetos\Projeto Python - 1° Semestre\Hospedagem\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291330A7-9DED-42BB-BA29-DCD7AA0EA555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53646E5B-2B53-4E83-B8BF-86F4EDFC5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Numero</t>
   </si>
@@ -86,6 +86,27 @@
   </si>
   <si>
     <t>ENVIADA</t>
+  </si>
+  <si>
+    <t>FELIPE TSUDA</t>
+  </si>
+  <si>
+    <t>VICTOR EDUARDO</t>
+  </si>
+  <si>
+    <t>SERVIDOR</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>TRIVAGO</t>
+  </si>
+  <si>
+    <t>R$ 150</t>
+  </si>
+  <si>
+    <t>CADASTRADA</t>
   </si>
 </sst>
 </file>
@@ -455,15 +476,15 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -608,9 +629,51 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>38324</v>
+      </c>
+      <c r="G4" s="2">
+        <v>38059</v>
+      </c>
+      <c r="H4" s="2">
+        <v>38060</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>9225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>1225</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
